--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,30 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -82,10 +82,13 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
@@ -94,9 +97,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
@@ -106,229 +106,214 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>good</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>always</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>positive</t>
@@ -689,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -808,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5471698113207547</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8777089783281734</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>567</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>567</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4806201550387597</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4545454545454545</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7389830508474576</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1000,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1008,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3076923076923077</v>
+        <v>0.46</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7186147186147186</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L8">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="M8">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2777777777777778</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1100,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2233009708737864</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1126,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.684931506849315</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1158,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.211864406779661</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1176,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.6637239165329053</v>
+        <v>0.6861958266452648</v>
       </c>
       <c r="L11">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="M11">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1208,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.6363636363636364</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,22 +1243,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1384615384615385</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>168</v>
@@ -1282,13 +1267,13 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6304347826086957</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1293,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6265060240963856</v>
+        <v>0.640625</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6068376068376068</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1345,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6056338028169014</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1386,13 +1371,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.5833333333333334</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1412,13 +1397,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.5828571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1438,13 +1423,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.578125</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1464,13 +1449,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.5735294117647058</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1490,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.562874251497006</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L21">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M21">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1516,13 +1501,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5480769230769231</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1542,13 +1527,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1568,13 +1553,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5111111111111111</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1594,13 +1579,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1620,13 +1605,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1646,13 +1631,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.4912280701754386</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1672,13 +1657,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.4857142857142857</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1698,13 +1683,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1724,13 +1709,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4698795180722892</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1742,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1750,13 +1735,13 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4693877551020408</v>
+        <v>0.4513618677042802</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1776,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4586466165413534</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1802,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4489795918367347</v>
+        <v>0.4436274509803921</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1828,13 +1813,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4414414414414414</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="M34">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>62</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1854,13 +1839,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4136986301369863</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="L35">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>428</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1880,13 +1865,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4093137254901961</v>
+        <v>0.37</v>
       </c>
       <c r="L36">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>241</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1906,13 +1891,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4046692607003891</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L37">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1932,13 +1917,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3823529411764706</v>
+        <v>0.3443708609271523</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1958,13 +1943,13 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3770491803278688</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1984,13 +1969,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3580246913580247</v>
+        <v>0.3349282296650718</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2010,13 +1995,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3538461538461539</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2036,13 +2021,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3492822966507177</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2062,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3492063492063492</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2088,13 +2073,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3383458646616541</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2114,13 +2099,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3289473684210527</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2140,13 +2125,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3139072847682119</v>
+        <v>0.3125</v>
       </c>
       <c r="L46">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="M46">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2155,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>518</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2166,13 +2151,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3095238095238095</v>
+        <v>0.2874172185430464</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>58</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2192,13 +2177,13 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3089343379978471</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L48">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>642</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2218,25 +2203,25 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.297029702970297</v>
+        <v>0.2785622593068036</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>71</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2244,25 +2229,25 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2897196261682243</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2270,13 +2255,13 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.2882882882882883</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2288,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2296,13 +2281,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2781456953642384</v>
+        <v>0.2546125461254612</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2314,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2322,25 +2307,25 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2661870503597122</v>
+        <v>0.25</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2348,25 +2333,25 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2635135135135135</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>109</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2374,25 +2359,25 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2601880877742947</v>
+        <v>0.2445652173913044</v>
       </c>
       <c r="L55">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M55">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2400,25 +2385,25 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2589285714285715</v>
+        <v>0.2439560439560439</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>83</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2426,25 +2411,25 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2586427656850192</v>
+        <v>0.2236286919831224</v>
       </c>
       <c r="L57">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="M57">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>579</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2452,25 +2437,25 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2571428571428571</v>
+        <v>0.2195704057279236</v>
       </c>
       <c r="L58">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="M58">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="N58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2478,13 +2463,13 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2560975609756098</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2504,25 +2489,25 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2379182156133829</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="L60">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M60">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>205</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2530,25 +2515,25 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.2335164835164835</v>
+        <v>0.214123006833713</v>
       </c>
       <c r="L61">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M61">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N61">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>279</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2556,25 +2541,25 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.2323232323232323</v>
+        <v>0.2126865671641791</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>76</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2582,25 +2567,25 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.2155172413793103</v>
+        <v>0.195</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>91</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2608,25 +2593,25 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.2095238095238095</v>
+        <v>0.1907090464547677</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>83</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2634,13 +2619,13 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.2062350119904077</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="L65">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="M65">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="N65">
         <v>0.98</v>
@@ -2652,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>331</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2660,13 +2645,13 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.1931818181818182</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L66">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2678,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>355</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2686,25 +2671,25 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.1679389312977099</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L67">
         <v>22</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2712,25 +2697,25 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.16</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2738,13 +2723,13 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1557177615571776</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L69">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M69">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2756,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>347</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2764,25 +2749,25 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1447368421052632</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2790,25 +2775,25 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1443298969072165</v>
+        <v>0.1434720229555237</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>249</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2816,25 +2801,25 @@
         <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1407407407407407</v>
+        <v>0.1342465753424658</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2842,25 +2827,25 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1397260273972603</v>
+        <v>0.1294559099437148</v>
       </c>
       <c r="L73">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="M73">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>314</v>
+        <v>928</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2868,25 +2853,25 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.138655462184874</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2894,25 +2879,25 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1299435028248588</v>
+        <v>0.1038394415357766</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>154</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2920,25 +2905,25 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1255857544517338</v>
+        <v>0.09833024118738404</v>
       </c>
       <c r="L76">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="M76">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>933</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2946,25 +2931,25 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1255060728744939</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="L77">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2972,25 +2957,25 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.116504854368932</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N78">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="O78">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>182</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2998,25 +2983,25 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1163793103448276</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L79">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="M79">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>615</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3024,25 +3009,25 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1066176470588235</v>
+        <v>0.07421875</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>243</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3050,25 +3035,25 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1060473269062226</v>
+        <v>0.06868131868131869</v>
       </c>
       <c r="L81">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="N81">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1020</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3076,155 +3061,25 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.08687615526802218</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="L82">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M82">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N82">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="O82">
-        <v>0.02000000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K83">
-        <v>0.08317214700193423</v>
-      </c>
-      <c r="L83">
-        <v>43</v>
-      </c>
-      <c r="M83">
-        <v>48</v>
-      </c>
-      <c r="N83">
-        <v>0.9</v>
-      </c>
-      <c r="O83">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K84">
-        <v>0.07435897435897436</v>
-      </c>
-      <c r="L84">
-        <v>29</v>
-      </c>
-      <c r="M84">
-        <v>33</v>
-      </c>
-      <c r="N84">
-        <v>0.88</v>
-      </c>
-      <c r="O84">
-        <v>0.12</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K85">
-        <v>0.06336088154269973</v>
-      </c>
-      <c r="L85">
-        <v>23</v>
-      </c>
-      <c r="M85">
-        <v>25</v>
-      </c>
-      <c r="N85">
-        <v>0.92</v>
-      </c>
-      <c r="O85">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K86">
-        <v>0.06291834002677377</v>
-      </c>
-      <c r="L86">
-        <v>47</v>
-      </c>
-      <c r="M86">
-        <v>67</v>
-      </c>
-      <c r="N86">
-        <v>0.7</v>
-      </c>
-      <c r="O86">
-        <v>0.3</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K87">
-        <v>0.06172839506172839</v>
-      </c>
-      <c r="L87">
-        <v>25</v>
-      </c>
-      <c r="M87">
-        <v>34</v>
-      </c>
-      <c r="N87">
-        <v>0.74</v>
-      </c>
-      <c r="O87">
-        <v>0.26</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>380</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
